--- a/biology/Zoologie/Blaesodactylus_boivini/Blaesodactylus_boivini.xlsx
+++ b/biology/Zoologie/Blaesodactylus_boivini/Blaesodactylus_boivini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Blaesodactylus boivini est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blaesodactylus boivini est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Nord de Madagascar[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Nord de Madagascar.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Louis Hyacinthe Boivin (1808–1852)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Louis Hyacinthe Boivin (1808–1852).
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Duméril, 1856 : Description des reptiles Nouveaux ou imparfaitement connus de la collection du Muséum d'Histoire Naturelle et remarques sur la classification et les caractères des reptiles. Archives du Muséum d'Histoire Naturelle, Paris, vol. 8, p. 437-588 (texte intégral).</t>
         </is>
